--- a/13.xlsx
+++ b/13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;¥&quot;#,##0;\\\-&quot;¥&quot;#,##0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11.0"/>
       <name val="宋体"/>
@@ -142,12 +142,6 @@
       <color theme="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11.0"/>
       <name val="宋体"/>
@@ -167,156 +161,187 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -326,9 +351,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -343,33 +366,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -384,9 +399,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -401,9 +414,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -418,17 +429,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -437,9 +444,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -516,10 +521,10 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -528,10 +533,10 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -540,10 +545,10 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -552,10 +557,10 @@
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -564,10 +569,10 @@
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -576,16 +581,16 @@
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -933,16 +938,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="E5" s="0">
         <v>1</v>
       </c>
     </row>
